--- a/상권_210420/station_상권(비율) 및 용도지역_2018.xlsx
+++ b/상권_210420/station_상권(비율) 및 용도지역_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nyp\PYDATAexam\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17883A70-71BD-4769-AB41-42E06805478A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46F41B5-BC54-41CD-BFCA-4C7A3D7538E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DECC62E-9C98-4900-861C-92D5617F9923}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
   <si>
     <t>측정소명</t>
   </si>
@@ -392,6 +392,13 @@
   </si>
   <si>
     <t>강남구 밤고개로 337 (세곡사거리)</t>
+  </si>
+  <si>
+    <t>관악산</t>
+  </si>
+  <si>
+    <t>과천시 자하동길 64 (관악산 중계소)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -794,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EFBF92-5FD7-4255-B102-040060C8E403}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2920,6 +2927,53 @@
         <v>78</v>
       </c>
     </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46">
+        <v>37.443314709689297</v>
+      </c>
+      <c r="D46">
+        <v>126.96710073882601</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
